--- a/Mars_Task02/Mars_Task02/ExcelData/TestDataManageListings.xlsx
+++ b/Mars_Task02/Mars_Task02/ExcelData/TestDataManageListings.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Mars_Task02\Mars_Task02\Mars_Task02\Mars_Task02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Mars_Task02\Mars_Task02\Mars_Task02\Mars_Task02\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07716235-208E-451F-9B58-B25B7A5DDA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED30DDA7-39A6-4738-97BA-E63A91A17DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{65B866A7-7CF8-4914-B43D-1C2DF72F73CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ManageSkill" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,18 +34,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Deleteaction</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Quality Assurance Analyst</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>18.00 PM</t>
+  </si>
+  <si>
+    <t>Coding with Csharp language, Selenium automation tool.</t>
+  </si>
+  <si>
+    <t>Web based application</t>
+  </si>
+  <si>
+    <t>08.00 PM</t>
+  </si>
+  <si>
+    <t>Software Tester</t>
   </si>
 </sst>
 </file>
@@ -77,7 +101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FF4472C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -97,10 +121,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,32 +448,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E3C5A6-4A56-4544-88B4-90DAD04863EF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45061</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45153</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Mars_Task02/Mars_Task02/ExcelData/TestDataManageListings.xlsx
+++ b/Mars_Task02/Mars_Task02/ExcelData/TestDataManageListings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Mars_Task02\Mars_Task02\Mars_Task02\Mars_Task02\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED30DDA7-39A6-4738-97BA-E63A91A17DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC9A46-8E4C-4A7A-B8DE-FA75B7DA2049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{65B866A7-7CF8-4914-B43D-1C2DF72F73CE}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>Web based application</t>
   </si>
   <si>
-    <t>08.00 PM</t>
-  </si>
-  <si>
     <t>Software Tester</t>
+  </si>
+  <si>
+    <t>08.00 AM</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -496,13 +496,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="4">
-        <v>45061</v>
+        <v>45092</v>
       </c>
       <c r="E2" s="4">
         <v>45153</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
